--- a/Morphological marker fo Mytilus edulis  Mytilus trossulus identification/Text/S123_tables.xlsx
+++ b/Morphological marker fo Mytilus edulis  Mytilus trossulus identification/Text/S123_tables.xlsx
@@ -2590,7 +2590,7 @@
 
 <file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{1f029e21-db65-4dea-827a-953cddb4f350}" name="admin" id="-953907393" dateTime="2020-09-14T15:15:02"/>
+  <userInfo guid="{1F029E21-DB65-4DEA-827A-953CDDB4F350}" name="admin" id="-953907393" dateTime="2020-09-14T15:15:02"/>
 </users>
 </file>
 
